--- a/학사관리 샘플데이터/샘플-데이터-제1정규화( (2).xlsx
+++ b/학사관리 샘플데이터/샘플-데이터-제1정규화( (2).xlsx
@@ -2101,7 +2101,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AFE27EF-43B7-4808-99EA-AE410A6D5ED9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2162,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B7F705-6773-49A6-B920-B47F42BEFA80}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-2691-2679</v>
+        <v>010-8076-0390</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>314</v>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-5257-2962</v>
+        <v>010-3285-3857</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>315</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6519-4249</v>
+        <v>010-5313-0113</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>348</v>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5797-5897</v>
+        <v>010-5115-4292</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>349</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3658-5131</v>
+        <v>010-4243-1785</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>316</v>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5986-8503</v>
+        <v>010-9814-8717</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>317</v>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2523-6310</v>
+        <v>010-5130-2817</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>344</v>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5009-7705</v>
+        <v>010-1636-1960</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>318</v>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2986-1403</v>
+        <v>010-3208-5870</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>319</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5899-5782</v>
+        <v>010-2751-2909</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>346</v>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6711-8061</v>
+        <v>010-7256-2311</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>347</v>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5090-3386</v>
+        <v>010-3229-8961</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>320</v>
@@ -2870,7 +2870,7 @@
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1175-7119</v>
+        <v>010-1225-1595</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>350</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8552-0909</v>
+        <v>010-7965-6423</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>321</v>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4685-3873</v>
+        <v>010-4727-1441</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>322</v>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4064-4922</v>
+        <v>010-6221-4298</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>323</v>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8297-9559</v>
+        <v>010-3650-3645</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>345</v>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9936-1044</v>
+        <v>010-5532-3104</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>351</v>
@@ -3044,7 +3044,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8550-5720</v>
+        <v>010-9488-7244</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>352</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2597-0611</v>
+        <v>010-4203-0085</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>353</v>
@@ -3102,7 +3102,7 @@
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7599-3497</v>
+        <v>010-3231-6868</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>354</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2805-1684</v>
+        <v>010-3857-5407</v>
       </c>
       <c r="D23" s="15" t="s">
         <v>355</v>
@@ -3160,7 +3160,7 @@
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7887-4767</v>
+        <v>010-4254-8357</v>
       </c>
       <c r="D24" s="15" t="s">
         <v>324</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6565-5124</v>
+        <v>010-9750-3209</v>
       </c>
       <c r="D25" s="15" t="s">
         <v>325</v>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1719-0857</v>
+        <v>010-5086-0429</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>326</v>
@@ -3247,7 +3247,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7253-0034</v>
+        <v>010-6128-8342</v>
       </c>
       <c r="D27" s="15" t="s">
         <v>356</v>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7791-0476</v>
+        <v>010-5299-1183</v>
       </c>
       <c r="D28" s="15" t="s">
         <v>357</v>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5193-5871</v>
+        <v>010-1032-8878</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>358</v>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9071-4963</v>
+        <v>010-9820-2738</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>327</v>
@@ -3363,7 +3363,7 @@
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9531-1662</v>
+        <v>010-6877-3543</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>328</v>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9767-7118</v>
+        <v>010-9119-6115</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>359</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4816-0129</v>
+        <v>010-1019-5148</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>329</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8355-3098</v>
+        <v>010-7883-7431</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>330</v>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="C35" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1230-8101</v>
+        <v>010-4645-4334</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>331</v>
@@ -3508,7 +3508,7 @@
       </c>
       <c r="C36" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5067-1674</v>
+        <v>010-8008-6717</v>
       </c>
       <c r="D36" s="15" t="s">
         <v>332</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="C37" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6134-9899</v>
+        <v>010-5856-2548</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>333</v>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="C38" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3952-1820</v>
+        <v>010-2121-4212</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>360</v>
@@ -3595,7 +3595,7 @@
       </c>
       <c r="C39" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8277-2593</v>
+        <v>010-3359-4808</v>
       </c>
       <c r="D39" s="15" t="s">
         <v>361</v>
@@ -3624,7 +3624,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8612-4865</v>
+        <v>010-2737-2325</v>
       </c>
       <c r="D40" s="15" t="s">
         <v>362</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="C41" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1220-4969</v>
+        <v>010-4748-4222</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>363</v>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="C42" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1130-6170</v>
+        <v>010-6933-1836</v>
       </c>
       <c r="D42" s="15" t="s">
         <v>334</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="C43" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5468-8588</v>
+        <v>010-7101-6894</v>
       </c>
       <c r="D43" s="15" t="s">
         <v>335</v>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="C44" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8085-3311</v>
+        <v>010-8152-4927</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>336</v>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="C45" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6938-5786</v>
+        <v>010-8412-6584</v>
       </c>
       <c r="D45" s="15" t="s">
         <v>337</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="C46" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7613-3075</v>
+        <v>010-6499-4879</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>364</v>
@@ -3827,7 +3827,7 @@
       </c>
       <c r="C47" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1725-4338</v>
+        <v>010-5635-5279</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>365</v>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="C48" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6891-4413</v>
+        <v>010-7835-1130</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>366</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="C49" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9592-5249</v>
+        <v>010-7541-0138</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>367</v>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="C50" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7313-3406</v>
+        <v>010-5062-4099</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>338</v>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="C51" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7996-1223</v>
+        <v>010-2025-5476</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>339</v>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C52" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3175-5220</v>
+        <v>010-7432-8427</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>340</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="C53" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4956-2981</v>
+        <v>010-9646-1874</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>341</v>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="C54" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9338-2280</v>
+        <v>010-5697-6751</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>368</v>
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C55" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9878-3903</v>
+        <v>010-8650-8945</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>369</v>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="C56" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8448-3057</v>
+        <v>010-5679-8274</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>342</v>
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C57" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5365-6050</v>
+        <v>010-9438-6823</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>370</v>
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5816-0200</v>
+        <v>010-7976-6328</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>343</v>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="C59" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2444-2306</v>
+        <v>010-1830-9822</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>371</v>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="C60" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2284-0629</v>
+        <v>010-3269-9344</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>372</v>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="C61" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7043-9849</v>
+        <v>010-9964-2577</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>373</v>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="C62" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8854-8699</v>
+        <v>010-7660-4975</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>404</v>
@@ -4291,7 +4291,7 @@
       </c>
       <c r="C63" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6822-4671</v>
+        <v>010-5289-7523</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>374</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="C64" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7615-8943</v>
+        <v>010-6248-7588</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>375</v>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="C65" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9065-1266</v>
+        <v>010-3805-1188</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>376</v>
@@ -4378,7 +4378,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7005-0798</v>
+        <v>010-8960-3026</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>377</v>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="C67" s="5" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-7818-2860</v>
+        <v>010-4335-5543</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>378</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="C68" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7533-5315</v>
+        <v>010-8066-4665</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>379</v>
@@ -4465,7 +4465,7 @@
       </c>
       <c r="C69" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3995-7353</v>
+        <v>010-3789-3995</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>405</v>
@@ -4494,7 +4494,7 @@
       </c>
       <c r="C70" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4315-2658</v>
+        <v>010-4928-5334</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>380</v>
@@ -4523,7 +4523,7 @@
       </c>
       <c r="C71" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8076-6567</v>
+        <v>010-7588-9752</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>406</v>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="C72" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5847-4102</v>
+        <v>010-8860-0337</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>381</v>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="C73" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9063-4696</v>
+        <v>010-1982-9277</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>382</v>
@@ -4610,7 +4610,7 @@
       </c>
       <c r="C74" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8063-4419</v>
+        <v>010-3368-0654</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>383</v>
@@ -4639,7 +4639,7 @@
       </c>
       <c r="C75" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9618-8072</v>
+        <v>010-4170-1227</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>384</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="C76" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4038-2921</v>
+        <v>010-9468-5410</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>407</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="C77" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1129-3807</v>
+        <v>010-5632-0601</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>408</v>
@@ -4726,7 +4726,7 @@
       </c>
       <c r="C78" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2037-3063</v>
+        <v>010-8716-8065</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>385</v>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="C79" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1536-1728</v>
+        <v>010-1784-5073</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>386</v>
@@ -4784,7 +4784,7 @@
       </c>
       <c r="C80" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7157-2972</v>
+        <v>010-5492-9254</v>
       </c>
       <c r="D80" s="15" t="s">
         <v>409</v>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="C81" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7747-2408</v>
+        <v>010-5155-4788</v>
       </c>
       <c r="D81" s="15" t="s">
         <v>387</v>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="C82" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8783-0566</v>
+        <v>010-6772-1184</v>
       </c>
       <c r="D82" s="15" t="s">
         <v>410</v>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="C83" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2409-7663</v>
+        <v>010-4560-8359</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>388</v>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="C84" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4938-4522</v>
+        <v>010-6970-9777</v>
       </c>
       <c r="D84" s="15" t="s">
         <v>389</v>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="C85" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8255-2722</v>
+        <v>010-1138-4227</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>390</v>
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C86" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5868-0621</v>
+        <v>010-7171-8601</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>391</v>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C87" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9057-1534</v>
+        <v>010-9386-7986</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>392</v>
@@ -5016,7 +5016,7 @@
       </c>
       <c r="C88" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5795-5425</v>
+        <v>010-6704-7940</v>
       </c>
       <c r="D88" s="15" t="s">
         <v>411</v>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="C89" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4467-1958</v>
+        <v>010-2439-2329</v>
       </c>
       <c r="D89" s="15" t="s">
         <v>393</v>
@@ -5074,7 +5074,7 @@
       </c>
       <c r="C90" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1784-7529</v>
+        <v>010-9062-7598</v>
       </c>
       <c r="D90" s="15" t="s">
         <v>394</v>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="C91" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5925-9831</v>
+        <v>010-1087-8249</v>
       </c>
       <c r="D91" s="15" t="s">
         <v>395</v>
@@ -5132,7 +5132,7 @@
       </c>
       <c r="C92" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3978-1529</v>
+        <v>010-3579-1200</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>396</v>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="C93" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4634-5755</v>
+        <v>010-8281-2858</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>397</v>
@@ -5190,7 +5190,7 @@
       </c>
       <c r="C94" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5811-9279</v>
+        <v>010-3734-3990</v>
       </c>
       <c r="D94" s="15" t="s">
         <v>398</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="C95" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3957-6043</v>
+        <v>010-8650-5071</v>
       </c>
       <c r="D95" s="15" t="s">
         <v>412</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="C96" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4465-4606</v>
+        <v>010-3038-7006</v>
       </c>
       <c r="D96" s="15" t="s">
         <v>413</v>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="C97" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3059-0513</v>
+        <v>010-6911-5189</v>
       </c>
       <c r="D97" s="15" t="s">
         <v>399</v>
@@ -5306,7 +5306,7 @@
       </c>
       <c r="C98" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2096-6617</v>
+        <v>010-4911-0179</v>
       </c>
       <c r="D98" s="15" t="s">
         <v>400</v>
@@ -5335,7 +5335,7 @@
       </c>
       <c r="C99" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3608-9056</v>
+        <v>010-7265-7918</v>
       </c>
       <c r="D99" s="15" t="s">
         <v>401</v>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="C100" s="5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3485-3089</v>
+        <v>010-1861-6559</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>402</v>
@@ -5393,7 +5393,7 @@
       </c>
       <c r="C101" s="14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2255-5229</v>
+        <v>010-7678-3079</v>
       </c>
       <c r="D101" s="16" t="s">
         <v>403</v>
@@ -15407,7 +15407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:K3"/>
     </sheetView>
   </sheetViews>
@@ -15460,7 +15460,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:I22" ca="1" si="0">RANDBETWEEN(50,100)</f>
@@ -15468,31 +15468,31 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:I17" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="J2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="K2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -15504,39 +15504,39 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:I23" ca="1" si="2">RANDBETWEEN(50,100)</f>
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J21" ca="1" si="3">SUM(C3:E3)</f>
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K21" ca="1" si="4">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -15548,39 +15548,39 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="3"/>
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -15592,39 +15592,39 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="3"/>
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -15636,39 +15636,39 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="3"/>
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -15680,39 +15680,39 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -15724,11 +15724,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
@@ -15736,27 +15736,27 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="3"/>
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -15768,39 +15768,39 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="3"/>
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -15812,39 +15812,39 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="3"/>
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -15856,39 +15856,39 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="3"/>
-        <v>282</v>
+        <v>220</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -15900,39 +15900,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="3"/>
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -15948,35 +15948,35 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -15988,39 +15988,39 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="3"/>
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -16032,39 +16032,39 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="3"/>
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -16080,35 +16080,35 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="3"/>
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -16120,39 +16120,39 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="3"/>
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -16164,39 +16164,39 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="3"/>
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -16208,39 +16208,39 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="3"/>
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -16252,15 +16252,15 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
@@ -16268,23 +16268,23 @@
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="3"/>
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -16296,39 +16296,39 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="3"/>
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -16340,23 +16340,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="0"/>
@@ -16364,15 +16364,15 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22:J85" ca="1" si="5">SUM(C22:E22)</f>
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K85" ca="1" si="6">ROUND(AVERAGE(C22:E22),0)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -16384,11 +16384,11 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
@@ -16396,27 +16396,27 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -16428,19 +16428,19 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:I87" ca="1" si="7">RANDBETWEEN(50,100)</f>
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="7"/>
@@ -16448,19 +16448,19 @@
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="5"/>
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -16472,39 +16472,39 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="5"/>
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="6"/>
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -16516,39 +16516,39 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -16560,27 +16560,27 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="7"/>
@@ -16588,11 +16588,11 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="5"/>
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -16604,39 +16604,39 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -16648,39 +16648,39 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>194</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -16692,39 +16692,39 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="5"/>
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -16736,39 +16736,39 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
@@ -16780,39 +16780,39 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
@@ -16824,39 +16824,39 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
@@ -16868,39 +16868,39 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
@@ -16912,39 +16912,39 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="7"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -16956,39 +16956,39 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H36">
         <f t="shared" ref="F36:I99" ca="1" si="8">RANDBETWEEN(50,100)</f>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -17000,39 +17000,39 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E37">
         <f t="shared" ref="E37:I100" ca="1" si="9">RANDBETWEEN(50,100)</f>
+        <v>78</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="8"/>
         <v>51</v>
       </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="G37">
-        <f t="shared" ca="1" si="8"/>
-        <v>55</v>
-      </c>
-      <c r="H37">
-        <f t="shared" ca="1" si="8"/>
-        <v>58</v>
-      </c>
       <c r="I37">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>198</v>
+        <v>255</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -17048,35 +17048,35 @@
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="7"/>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
@@ -17088,39 +17088,39 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="8"/>
         <v>53</v>
       </c>
-      <c r="F39">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
-      </c>
       <c r="G39">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -17132,39 +17132,39 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="9"/>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>193</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -17176,39 +17176,39 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="7"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
@@ -17220,39 +17220,39 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="6"/>
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
@@ -17264,39 +17264,39 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -17308,7 +17308,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="7"/>
@@ -17316,31 +17316,31 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="8"/>
         <v>56</v>
       </c>
-      <c r="F44">
-        <f t="shared" ca="1" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="G44">
-        <f t="shared" ca="1" si="8"/>
-        <v>76</v>
-      </c>
       <c r="H44">
         <f t="shared" ca="1" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ca="1" si="8"/>
         <v>62</v>
-      </c>
-      <c r="I44">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
@@ -17352,39 +17352,39 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -17396,39 +17396,39 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
@@ -17440,15 +17440,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="8"/>
@@ -17456,23 +17456,23 @@
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
@@ -17484,35 +17484,35 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="I48">
+        <f t="shared" ca="1" si="8"/>
         <v>87</v>
-      </c>
-      <c r="F48">
-        <f t="shared" ca="1" si="8"/>
-        <v>56</v>
-      </c>
-      <c r="G48">
-        <f t="shared" ca="1" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="H48">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
-      </c>
-      <c r="I48">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="5"/>
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="6"/>
@@ -17528,39 +17528,39 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="5"/>
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="6"/>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -17572,39 +17572,39 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="5"/>
-        <v>189</v>
+        <v>251</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
@@ -17616,39 +17616,39 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="7"/>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="J51">
         <f t="shared" ca="1" si="5"/>
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -17660,39 +17660,39 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
@@ -17704,39 +17704,39 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="7"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="5"/>
-        <v>251</v>
+        <v>218</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="6"/>
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
@@ -17748,39 +17748,39 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="7"/>
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="9"/>
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="H54">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="5"/>
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
@@ -17792,39 +17792,39 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="9"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H55">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I55">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="J55">
         <f t="shared" ca="1" si="5"/>
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -17836,39 +17836,39 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H56">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="I56">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J56">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
@@ -17880,39 +17880,39 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H57">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="I57">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J57">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
@@ -17924,39 +17924,39 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="9"/>
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="G58">
+        <f t="shared" ca="1" si="8"/>
         <v>53</v>
       </c>
-      <c r="G58">
-        <f t="shared" ca="1" si="8"/>
-        <v>84</v>
-      </c>
       <c r="H58">
         <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="I58">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="J58">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
@@ -17968,39 +17968,39 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="H59">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="I59">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="J59">
         <f t="shared" ca="1" si="5"/>
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -18012,39 +18012,39 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H60">
         <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I60">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J60">
         <f t="shared" ca="1" si="5"/>
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
@@ -18056,39 +18056,39 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="9"/>
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H61">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="I61">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J61">
         <f t="shared" ca="1" si="5"/>
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
@@ -18100,39 +18100,39 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="8"/>
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H62">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I62">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="J62">
         <f t="shared" ca="1" si="5"/>
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
@@ -18148,35 +18148,35 @@
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="H63">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I63">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="J63">
         <f t="shared" ca="1" si="5"/>
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -18188,39 +18188,39 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="7"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H64">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="I64">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J64">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -18232,11 +18232,11 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="9"/>
@@ -18244,27 +18244,27 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H65">
         <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I65">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="J65">
         <f t="shared" ca="1" si="5"/>
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -18276,39 +18276,39 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="8"/>
+        <v>56</v>
+      </c>
+      <c r="G66">
+        <f t="shared" ca="1" si="8"/>
         <v>79</v>
       </c>
-      <c r="G66">
+      <c r="H66">
+        <f t="shared" ca="1" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="I66">
         <f t="shared" ca="1" si="8"/>
         <v>95</v>
-      </c>
-      <c r="H66">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="I66">
-        <f t="shared" ca="1" si="8"/>
-        <v>96</v>
       </c>
       <c r="J66">
         <f t="shared" ca="1" si="5"/>
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
@@ -18320,39 +18320,39 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F67">
         <f t="shared" ca="1" si="8"/>
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="G67">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H67">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I67">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J67">
         <f t="shared" ca="1" si="5"/>
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
@@ -18364,39 +18364,39 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="9"/>
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H68">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="I68">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J68">
         <f t="shared" ca="1" si="5"/>
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
@@ -18408,39 +18408,39 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H69">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I69">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="J69">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -18452,39 +18452,39 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="7"/>
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="9"/>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H70">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="I70">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J70">
         <f t="shared" ca="1" si="5"/>
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
@@ -18496,11 +18496,11 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="9"/>
@@ -18508,27 +18508,27 @@
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H71">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I71">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="J71">
         <f t="shared" ca="1" si="5"/>
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
@@ -18540,39 +18540,39 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="9"/>
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H72">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="I72">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="J72">
         <f t="shared" ca="1" si="5"/>
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K72">
         <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
@@ -18584,39 +18584,39 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="H73">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="I73">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J73">
         <f t="shared" ca="1" si="5"/>
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K73">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
@@ -18628,39 +18628,39 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H74">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="I74">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="J74">
         <f t="shared" ca="1" si="5"/>
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="K74">
         <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
@@ -18672,39 +18672,39 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="7"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="G75">
+        <f t="shared" ca="1" si="8"/>
+        <v>54</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ca="1" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="I75">
+        <f t="shared" ca="1" si="8"/>
         <v>97</v>
-      </c>
-      <c r="G75">
-        <f t="shared" ca="1" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="H75">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
-      <c r="I75">
-        <f t="shared" ca="1" si="8"/>
-        <v>73</v>
       </c>
       <c r="J75">
         <f t="shared" ca="1" si="5"/>
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="K75">
         <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -18716,39 +18716,39 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="H76">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I76">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J76">
         <f t="shared" ca="1" si="5"/>
-        <v>157</v>
+        <v>274</v>
       </c>
       <c r="K76">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
@@ -18760,39 +18760,39 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="7"/>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="9"/>
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="8"/>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="H77">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I77">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="J77">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="K77">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
@@ -18804,39 +18804,39 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="7"/>
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H78">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I78">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="J78">
         <f t="shared" ca="1" si="5"/>
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K78">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
@@ -18848,39 +18848,39 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="9"/>
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H79">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="I79">
         <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J79">
         <f t="shared" ca="1" si="5"/>
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="K79">
         <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -18892,39 +18892,39 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="7"/>
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="9"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="8"/>
+        <v>61</v>
+      </c>
+      <c r="G80">
+        <f t="shared" ca="1" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ca="1" si="8"/>
+        <v>65</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ca="1" si="8"/>
         <v>90</v>
-      </c>
-      <c r="G80">
-        <f t="shared" ca="1" si="8"/>
-        <v>58</v>
-      </c>
-      <c r="H80">
-        <f t="shared" ca="1" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="I80">
-        <f t="shared" ca="1" si="8"/>
-        <v>53</v>
       </c>
       <c r="J80">
         <f t="shared" ca="1" si="5"/>
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K80">
         <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -18936,39 +18936,39 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="7"/>
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H81">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="I81">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J81">
         <f t="shared" ca="1" si="5"/>
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="K81">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
@@ -18980,31 +18980,31 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="7"/>
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="H82">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="I82">
         <f t="shared" ca="1" si="8"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="J82">
         <f t="shared" ca="1" si="5"/>
@@ -19024,39 +19024,39 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="8"/>
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="H83">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I83">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="J83">
         <f t="shared" ca="1" si="5"/>
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="K83">
         <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
@@ -19068,39 +19068,39 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="H84">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="I84">
         <f t="shared" ca="1" si="8"/>
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J84">
         <f t="shared" ca="1" si="5"/>
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="K84">
         <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -19112,39 +19112,39 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="9"/>
+        <v>75</v>
+      </c>
+      <c r="F85">
+        <f t="shared" ca="1" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="G85">
+        <f t="shared" ca="1" si="8"/>
         <v>60</v>
       </c>
-      <c r="F85">
-        <f t="shared" ca="1" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="G85">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
-      </c>
       <c r="H85">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="I85">
         <f t="shared" ca="1" si="8"/>
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="J85">
         <f t="shared" ca="1" si="5"/>
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="K85">
         <f t="shared" ca="1" si="6"/>
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -19156,39 +19156,39 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="7"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="9"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="H86">
         <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I86">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="J86">
         <f t="shared" ref="J86:J101" ca="1" si="10">SUM(C86:E86)</f>
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K86">
         <f t="shared" ref="K86:K101" ca="1" si="11">ROUND(AVERAGE(C86:E86),0)</f>
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -19200,39 +19200,39 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="8"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H87">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="I87">
         <f t="shared" ca="1" si="8"/>
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J87">
         <f t="shared" ca="1" si="10"/>
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="K87">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -19244,39 +19244,39 @@
       </c>
       <c r="C88">
         <f t="shared" ref="C88:I101" ca="1" si="12">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="12"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="9"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H88">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="I88">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="J88">
         <f t="shared" ca="1" si="10"/>
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="K88">
         <f t="shared" ca="1" si="11"/>
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
@@ -19288,39 +19288,39 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="12"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H89">
         <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I89">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J89">
         <f t="shared" ca="1" si="10"/>
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="K89">
         <f t="shared" ca="1" si="11"/>
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -19332,39 +19332,39 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="12"/>
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="F90">
+        <f t="shared" ca="1" si="8"/>
+        <v>57</v>
+      </c>
+      <c r="G90">
+        <f t="shared" ca="1" si="8"/>
         <v>73</v>
       </c>
-      <c r="F90">
-        <f t="shared" ca="1" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="G90">
-        <f t="shared" ca="1" si="8"/>
-        <v>83</v>
-      </c>
       <c r="H90">
         <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="I90">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="J90">
         <f t="shared" ca="1" si="10"/>
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="K90">
         <f t="shared" ca="1" si="11"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
@@ -19376,39 +19376,39 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="12"/>
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H91">
         <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I91">
         <f t="shared" ca="1" si="8"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J91">
         <f t="shared" ca="1" si="10"/>
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K91">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -19420,39 +19420,39 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="9"/>
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="8"/>
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="H92">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="I92">
         <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="J92">
         <f t="shared" ca="1" si="10"/>
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="K92">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -19464,39 +19464,39 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H93">
         <f t="shared" ca="1" si="8"/>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I93">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="J93">
         <f t="shared" ca="1" si="10"/>
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K93">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -19508,39 +19508,39 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="12"/>
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="12"/>
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="8"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H94">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I94">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="J94">
         <f t="shared" ca="1" si="10"/>
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="K94">
         <f t="shared" ca="1" si="11"/>
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -19552,39 +19552,39 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="9"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="H95">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="I95">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="J95">
         <f t="shared" ca="1" si="10"/>
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="K95">
         <f t="shared" ca="1" si="11"/>
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -19596,39 +19596,39 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="12"/>
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="12"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="9"/>
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H96">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I96">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="J96">
         <f t="shared" ca="1" si="10"/>
-        <v>188</v>
+        <v>241</v>
       </c>
       <c r="K96">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
@@ -19640,39 +19640,39 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="12"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="12"/>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ca="1" si="8"/>
         <v>71</v>
       </c>
-      <c r="G97">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
-      </c>
       <c r="H97">
         <f t="shared" ca="1" si="8"/>
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="I97">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J97">
         <f t="shared" ca="1" si="10"/>
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="K97">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
@@ -19684,39 +19684,39 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="12"/>
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="12"/>
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="8"/>
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H98">
         <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I98">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J98">
         <f t="shared" ca="1" si="10"/>
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="K98">
         <f t="shared" ca="1" si="11"/>
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
@@ -19728,39 +19728,39 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="12"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="12"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="9"/>
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="8"/>
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H99">
         <f t="shared" ca="1" si="8"/>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I99">
         <f t="shared" ca="1" si="8"/>
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J99">
         <f t="shared" ca="1" si="10"/>
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="K99">
         <f t="shared" ca="1" si="11"/>
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
@@ -19772,39 +19772,39 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="12"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="9"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="9"/>
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H100">
         <f t="shared" ca="1" si="9"/>
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I100">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J100">
         <f t="shared" ca="1" si="10"/>
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="K100">
         <f t="shared" ca="1" si="11"/>
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
@@ -19816,39 +19816,39 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="12"/>
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="12"/>
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="12"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H101">
         <f t="shared" ca="1" si="12"/>
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="I101">
         <f t="shared" ca="1" si="12"/>
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="J101">
         <f t="shared" ca="1" si="10"/>
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="K101">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -19903,23 +19903,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D2">
         <f t="shared" ref="D2:E22" ca="1" si="0">RANDBETWEEN(50,100)</f>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(50,100)</f>
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F2">
         <f ca="1">SUM(C2:E2)</f>
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="G2">
         <f ca="1">ROUND(AVERAGE(C2:E2),0)</f>
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -19931,23 +19931,23 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E23" ca="1" si="1">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" ca="1" si="2">SUM(C3:E3)</f>
-        <v>218</v>
+        <v>287</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G66" ca="1" si="3">ROUND(AVERAGE(C3:E3),0)</f>
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -19959,23 +19959,23 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -19987,23 +19987,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -20015,23 +20015,23 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -20043,23 +20043,23 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -20071,23 +20071,23 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>185</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -20099,23 +20099,23 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -20127,23 +20127,23 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -20155,23 +20155,23 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -20183,23 +20183,23 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -20211,23 +20211,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -20239,23 +20239,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -20267,23 +20267,23 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -20295,23 +20295,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -20323,23 +20323,23 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -20351,23 +20351,23 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -20379,23 +20379,23 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -20407,23 +20407,23 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="0"/>
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -20435,23 +20435,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -20463,23 +20463,23 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -20491,23 +20491,23 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -20519,23 +20519,23 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:E60" ca="1" si="4">RANDBETWEEN(50,100)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -20547,23 +20547,23 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -20575,23 +20575,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -20603,23 +20603,23 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -20631,23 +20631,23 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -20659,23 +20659,23 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="4"/>
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>201</v>
+        <v>258</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -20687,23 +20687,23 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -20715,23 +20715,23 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -20743,23 +20743,23 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="2"/>
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -20771,7 +20771,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="4"/>
@@ -20779,15 +20779,15 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="2"/>
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -20799,23 +20799,23 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="2"/>
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -20827,23 +20827,23 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -20855,23 +20855,23 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>246</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -20883,23 +20883,23 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="2"/>
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -20911,23 +20911,23 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -20939,23 +20939,23 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="2"/>
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -20967,23 +20967,23 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="2"/>
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -20995,23 +20995,23 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="4"/>
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="2"/>
-        <v>249</v>
+        <v>182</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -21023,23 +21023,23 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="2"/>
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -21051,23 +21051,23 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="2"/>
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="3"/>
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -21079,23 +21079,23 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="4"/>
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="4"/>
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -21107,23 +21107,23 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="2"/>
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -21135,23 +21135,23 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="4"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="2"/>
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -21163,23 +21163,23 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -21191,23 +21191,23 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -21219,23 +21219,23 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="4"/>
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="2"/>
-        <v>268</v>
+        <v>221</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -21247,23 +21247,23 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="2"/>
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -21275,23 +21275,23 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="2"/>
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G51">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
@@ -21303,23 +21303,23 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G52">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -21331,23 +21331,23 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F53">
         <f t="shared" ca="1" si="2"/>
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
@@ -21359,23 +21359,23 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="4"/>
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="4"/>
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -21387,23 +21387,23 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="4"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F55">
         <f t="shared" ca="1" si="2"/>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G55">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -21415,23 +21415,23 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="4"/>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F56">
         <f t="shared" ca="1" si="2"/>
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="G56">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -21443,23 +21443,23 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="4"/>
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="F57">
         <f t="shared" ca="1" si="2"/>
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="G57">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -21471,23 +21471,23 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F58">
         <f t="shared" ca="1" si="2"/>
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="G58">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -21499,11 +21499,11 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="4"/>
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="4"/>
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="4"/>
@@ -21511,11 +21511,11 @@
       </c>
       <c r="F59">
         <f t="shared" ca="1" si="2"/>
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G59">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -21527,23 +21527,23 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="4"/>
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F60">
         <f t="shared" ca="1" si="2"/>
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G60">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -21555,23 +21555,23 @@
       </c>
       <c r="C61">
         <f t="shared" ref="C61:E101" ca="1" si="5">RANDBETWEEN(50,100)</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="F61">
         <f t="shared" ca="1" si="2"/>
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="G61">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -21583,23 +21583,23 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="F62">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="G62">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -21611,23 +21611,23 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="F63">
         <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="G63">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -21639,23 +21639,23 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="F64">
         <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="G64">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -21667,11 +21667,11 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="5"/>
@@ -21679,11 +21679,11 @@
       </c>
       <c r="F65">
         <f t="shared" ca="1" si="2"/>
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G65">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -21695,23 +21695,23 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F66">
         <f t="shared" ca="1" si="2"/>
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="G66">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
@@ -21723,15 +21723,15 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F101" ca="1" si="6">SUM(C67:E67)</f>
@@ -21751,23 +21751,23 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F68">
         <f t="shared" ca="1" si="6"/>
-        <v>191</v>
+        <v>280</v>
       </c>
       <c r="G68">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
@@ -21779,23 +21779,23 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <f t="shared" ca="1" si="6"/>
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="G69">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -21807,11 +21807,11 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="5"/>
@@ -21819,11 +21819,11 @@
       </c>
       <c r="F70">
         <f t="shared" ca="1" si="6"/>
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G70">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -21835,23 +21835,23 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F71">
         <f t="shared" ca="1" si="6"/>
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="G71">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -21863,23 +21863,23 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F72">
         <f t="shared" ca="1" si="6"/>
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="G72">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
@@ -21891,23 +21891,23 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="F73">
         <f t="shared" ca="1" si="6"/>
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="G73">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -21919,23 +21919,23 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="D74">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F74">
         <f t="shared" ca="1" si="6"/>
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="G74">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -21951,19 +21951,19 @@
       </c>
       <c r="D75">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F75">
         <f t="shared" ca="1" si="6"/>
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="G75">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
@@ -21975,23 +21975,23 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D76">
         <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F76">
         <f t="shared" ca="1" si="6"/>
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="G76">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -22003,23 +22003,23 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D77">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F77">
         <f t="shared" ca="1" si="6"/>
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="G77">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -22031,23 +22031,23 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="D78">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="F78">
         <f t="shared" ca="1" si="6"/>
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="G78">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -22059,23 +22059,23 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D79">
         <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F79">
         <f t="shared" ca="1" si="6"/>
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G79">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
@@ -22087,23 +22087,23 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D80">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F80">
         <f t="shared" ca="1" si="6"/>
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="G80">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -22115,23 +22115,23 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="D81">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F81">
         <f t="shared" ca="1" si="6"/>
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="G81">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -22143,23 +22143,23 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D82">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="F82">
         <f t="shared" ca="1" si="6"/>
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="G82">
         <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -22171,23 +22171,23 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="5"/>
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D83">
         <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F83">
         <f t="shared" ca="1" si="6"/>
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="G83">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -22199,23 +22199,23 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="D84">
         <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F84">
         <f t="shared" ca="1" si="6"/>
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="G84">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -22227,23 +22227,23 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="D85">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F85">
         <f t="shared" ca="1" si="6"/>
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="G85">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -22255,23 +22255,23 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="D86">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F86">
         <f t="shared" ca="1" si="6"/>
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="G86">
         <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -22283,23 +22283,23 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D87">
         <f t="shared" ca="1" si="5"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="F87">
         <f t="shared" ca="1" si="6"/>
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="G87">
         <f t="shared" ca="1" si="7"/>
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -22311,23 +22311,23 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D88">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F88">
         <f t="shared" ca="1" si="6"/>
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G88">
         <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -22339,23 +22339,23 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D89">
         <f t="shared" ca="1" si="5"/>
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F89">
         <f t="shared" ca="1" si="6"/>
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="G89">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -22367,23 +22367,23 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D90">
         <f t="shared" ca="1" si="5"/>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F90">
         <f t="shared" ca="1" si="6"/>
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="G90">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
@@ -22395,19 +22395,19 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D91">
         <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="F91">
         <f t="shared" ca="1" si="6"/>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G91">
         <f t="shared" ca="1" si="7"/>
@@ -22423,23 +22423,23 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D92">
         <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="5"/>
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="F92">
         <f t="shared" ca="1" si="6"/>
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="G92">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -22451,23 +22451,23 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D93">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F93">
         <f t="shared" ca="1" si="6"/>
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="G93">
         <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -22479,23 +22479,23 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="5"/>
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D94">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="F94">
         <f t="shared" ca="1" si="6"/>
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="G94">
         <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
@@ -22507,23 +22507,23 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D95">
         <f t="shared" ca="1" si="5"/>
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F95">
         <f t="shared" ca="1" si="6"/>
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="G95">
         <f t="shared" ca="1" si="7"/>
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
@@ -22535,23 +22535,23 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D96">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F96">
         <f t="shared" ca="1" si="6"/>
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="G96">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
@@ -22563,23 +22563,23 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="5"/>
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D97">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="5"/>
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="F97">
         <f t="shared" ca="1" si="6"/>
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G97">
         <f t="shared" ca="1" si="7"/>
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -22591,23 +22591,23 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D98">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="5"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F98">
         <f t="shared" ca="1" si="6"/>
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="G98">
         <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -22619,23 +22619,23 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="D99">
         <f t="shared" ca="1" si="5"/>
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="5"/>
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="F99">
         <f t="shared" ca="1" si="6"/>
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="G99">
         <f t="shared" ca="1" si="7"/>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -22647,23 +22647,23 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="5"/>
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D100">
         <f t="shared" ca="1" si="5"/>
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F100">
         <f t="shared" ca="1" si="6"/>
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="G100">
         <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -22675,23 +22675,23 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D101">
         <f t="shared" ca="1" si="5"/>
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F101">
         <f t="shared" ca="1" si="6"/>
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="G101">
         <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
